--- a/Test_Cases_Application.xlsx
+++ b/Test_Cases_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepjyoti\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6086621-87FF-4E10-B50A-93938F2FF9F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB847A-6B6A-4787-AB91-A3CDD744B5DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
   <si>
     <t>Step No</t>
   </si>
@@ -223,6 +223,42 @@
   </si>
   <si>
     <t>Nothing should get listed</t>
+  </si>
+  <si>
+    <t>Automated TC name</t>
+  </si>
+  <si>
+    <t>TC01_Add_Computer_Test</t>
+  </si>
+  <si>
+    <t>TC02_Read_Computer_Test</t>
+  </si>
+  <si>
+    <t>TC03_Update_Information_Test</t>
+  </si>
+  <si>
+    <t>TC04_Search_Existing_Computer_Test</t>
+  </si>
+  <si>
+    <t>TC05_Delete_Computer_Test</t>
+  </si>
+  <si>
+    <t>TC06_Search_Non_Existing_Computer_Test</t>
+  </si>
+  <si>
+    <t>TC07_Total_Header_Count_Validation_Test</t>
+  </si>
+  <si>
+    <t>TC08_Verify_Previous_Button_Disabled_LaunchPage_test</t>
+  </si>
+  <si>
+    <t>TC09_Verify_Previous_Button_Enabled_NextPage_test</t>
+  </si>
+  <si>
+    <t>TC10_Cancel_Add_Computer_Validation</t>
+  </si>
+  <si>
+    <t>TC11_Verify_Next_Button_Behavior</t>
   </si>
 </sst>
 </file>
@@ -260,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,11 +319,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,11 +369,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,543 +667,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E95"/>
+  <dimension ref="A2:I106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="74.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+    <row r="31" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>3</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
-        <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="59" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="4"/>
+      <c r="C64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
@@ -1149,242 +1254,342 @@
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="2">
-        <v>2</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="2">
-        <v>3</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="2">
-        <v>4</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="2">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="2">
-        <v>6</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="2">
-        <v>2</v>
-      </c>
-      <c r="C95" s="2" t="s">
+    <row r="106" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="35">
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C63:D63"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
